--- a/results/Datewise_Total_Count.xlsx
+++ b/results/Datewise_Total_Count.xlsx
@@ -63,10 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -169,7 +168,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Datewise Summary Report'!B3</f>
+              <f>'Datewise Summary Report'!B2</f>
             </strRef>
           </tx>
           <spPr>
@@ -179,12 +178,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Datewise Summary Report'!$B$3</f>
+              <f>'Datewise Summary Report'!$B$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Datewise Summary Report'!$C$3:$B$3</f>
+              <f>'Datewise Summary Report'!$C$2:$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -193,7 +192,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Datewise Summary Report'!C3</f>
+              <f>'Datewise Summary Report'!C2</f>
             </strRef>
           </tx>
           <spPr>
@@ -203,12 +202,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Datewise Summary Report'!$B$3</f>
+              <f>'Datewise Summary Report'!$B$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Datewise Summary Report'!$D$3:$C$3</f>
+              <f>'Datewise Summary Report'!$D$2:$C$2</f>
             </numRef>
           </val>
         </ser>
@@ -543,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,29 +568,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2024-07-15</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>21</v>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>331</v>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/Datewise_Total_Count.xlsx
+++ b/results/Datewise_Total_Count.xlsx
@@ -63,9 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -168,7 +169,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Datewise Summary Report'!B2</f>
+              <f>'Datewise Summary Report'!B3</f>
             </strRef>
           </tx>
           <spPr>
@@ -178,12 +179,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Datewise Summary Report'!$B$2</f>
+              <f>'Datewise Summary Report'!$B$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Datewise Summary Report'!$C$2:$B$2</f>
+              <f>'Datewise Summary Report'!$C$3:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -192,7 +193,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Datewise Summary Report'!C2</f>
+              <f>'Datewise Summary Report'!C3</f>
             </strRef>
           </tx>
           <spPr>
@@ -202,12 +203,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Datewise Summary Report'!$B$2</f>
+              <f>'Datewise Summary Report'!$B$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Datewise Summary Report'!$D$2:$C$2</f>
+              <f>'Datewise Summary Report'!$D$3:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -542,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,16 +569,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
